--- a/portfel_inwestycje.xlsx
+++ b/portfel_inwestycje.xlsx
@@ -585,10 +585,10 @@
         <v>45832</v>
       </c>
       <c r="K3" t="n">
-        <v>516550</v>
+        <v>544900</v>
       </c>
       <c r="L3" t="n">
-        <v>16550</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="4">
@@ -631,10 +631,10 @@
         <v>45832</v>
       </c>
       <c r="K4" t="n">
-        <v>104239.79</v>
+        <v>107100.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3339.79</v>
+        <v>6200.3</v>
       </c>
     </row>
     <row r="5">

--- a/portfel_inwestycje.xlsx
+++ b/portfel_inwestycje.xlsx
@@ -677,10 +677,10 @@
         <v>45832</v>
       </c>
       <c r="K5" t="n">
-        <v>180180</v>
+        <v>180821.52</v>
       </c>
       <c r="L5" t="n">
-        <v>180</v>
+        <v>821.52</v>
       </c>
     </row>
     <row r="6">
